--- a/data_year/zb/文化/图书出版情况/图书出版种数.xlsx
+++ b/data_year/zb/文化/图书出版情况/图书出版种数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,1814 +578,1045 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2085</v>
+        <v>765</v>
       </c>
       <c r="C2" t="n">
-        <v>1161</v>
+        <v>3862</v>
       </c>
       <c r="D2" t="n">
-        <v>141291</v>
+        <v>327622</v>
       </c>
       <c r="E2" t="n">
-        <v>425</v>
+        <v>946</v>
       </c>
       <c r="F2" t="n">
-        <v>3384</v>
+        <v>6621</v>
       </c>
       <c r="G2" t="n">
-        <v>6329</v>
+        <v>15792</v>
       </c>
       <c r="H2" t="n">
-        <v>4402</v>
+        <v>12411</v>
       </c>
       <c r="I2" t="n">
-        <v>1461</v>
+        <v>7418</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>143376</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>328387</v>
+      </c>
+      <c r="L2" t="n">
+        <v>765</v>
+      </c>
       <c r="M2" t="n">
-        <v>630</v>
+        <v>1790</v>
       </c>
       <c r="N2" t="n">
-        <v>16267</v>
+        <v>41904</v>
       </c>
       <c r="O2" t="n">
-        <v>5509</v>
+        <v>13903</v>
       </c>
       <c r="P2" t="n">
-        <v>2530</v>
+        <v>6294</v>
       </c>
       <c r="Q2" t="n">
-        <v>58513</v>
+        <v>111380</v>
       </c>
       <c r="R2" t="n">
-        <v>10756</v>
+        <v>29958</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>400</v>
+        <v>1589</v>
       </c>
       <c r="U2" t="n">
-        <v>514</v>
+        <v>1973</v>
       </c>
       <c r="V2" t="n">
-        <v>1731</v>
+        <v>4841</v>
       </c>
       <c r="W2" t="n">
-        <v>9107</v>
+        <v>27486</v>
       </c>
       <c r="X2" t="n">
-        <v>3042</v>
+        <v>2108</v>
       </c>
       <c r="Y2" t="n">
-        <v>926</v>
+        <v>1193</v>
       </c>
       <c r="Z2" t="n">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="AA2" t="n">
-        <v>7577</v>
+        <v>16787</v>
       </c>
       <c r="AB2" t="n">
-        <v>6301</v>
+        <v>18610</v>
       </c>
       <c r="AC2" t="n">
-        <v>236</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2239</v>
+        <v>883</v>
       </c>
       <c r="C3" t="n">
-        <v>1414</v>
+        <v>4189</v>
       </c>
       <c r="D3" t="n">
-        <v>152287</v>
+        <v>368640</v>
       </c>
       <c r="E3" t="n">
-        <v>446</v>
+        <v>1178</v>
       </c>
       <c r="F3" t="n">
-        <v>3281</v>
+        <v>6305</v>
       </c>
       <c r="G3" t="n">
-        <v>6440</v>
+        <v>15711</v>
       </c>
       <c r="H3" t="n">
-        <v>4878</v>
+        <v>14511</v>
       </c>
       <c r="I3" t="n">
-        <v>1590</v>
+        <v>8600</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>155000</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>369523</v>
+      </c>
+      <c r="L3" t="n">
+        <v>883</v>
+      </c>
       <c r="M3" t="n">
-        <v>558</v>
+        <v>2014</v>
       </c>
       <c r="N3" t="n">
-        <v>17694</v>
+        <v>44539</v>
       </c>
       <c r="O3" t="n">
-        <v>6589</v>
+        <v>15669</v>
       </c>
       <c r="P3" t="n">
-        <v>2673</v>
+        <v>6997</v>
       </c>
       <c r="Q3" t="n">
-        <v>61174</v>
+        <v>133054</v>
       </c>
       <c r="R3" t="n">
-        <v>11235</v>
+        <v>32317</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>502</v>
+        <v>1706</v>
       </c>
       <c r="U3" t="n">
-        <v>560</v>
+        <v>2259</v>
       </c>
       <c r="V3" t="n">
-        <v>1812</v>
+        <v>5344</v>
       </c>
       <c r="W3" t="n">
-        <v>10460</v>
+        <v>30253</v>
       </c>
       <c r="X3" t="n">
         <v>2850</v>
       </c>
       <c r="Y3" t="n">
-        <v>893</v>
+        <v>827</v>
       </c>
       <c r="Z3" t="n">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="AA3" t="n">
-        <v>9765</v>
+        <v>19825</v>
       </c>
       <c r="AB3" t="n">
-        <v>7103</v>
+        <v>19550</v>
       </c>
       <c r="AC3" t="n">
-        <v>259</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2193</v>
+        <v>692</v>
       </c>
       <c r="C4" t="n">
-        <v>1647</v>
+        <v>4224</v>
       </c>
       <c r="D4" t="n">
-        <v>168769</v>
+        <v>413313</v>
       </c>
       <c r="E4" t="n">
-        <v>493</v>
+        <v>1279</v>
       </c>
       <c r="F4" t="n">
-        <v>2936</v>
+        <v>5883</v>
       </c>
       <c r="G4" t="n">
-        <v>7105</v>
+        <v>16855</v>
       </c>
       <c r="H4" t="n">
-        <v>5245</v>
+        <v>16916</v>
       </c>
       <c r="I4" t="n">
-        <v>2053</v>
+        <v>8338</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>171000</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>414005</v>
+      </c>
+      <c r="L4" t="n">
+        <v>692</v>
+      </c>
       <c r="M4" t="n">
-        <v>597</v>
+        <v>2438</v>
       </c>
       <c r="N4" t="n">
-        <v>19517</v>
+        <v>43964</v>
       </c>
       <c r="O4" t="n">
-        <v>7102</v>
+        <v>16791</v>
       </c>
       <c r="P4" t="n">
-        <v>3077</v>
+        <v>7143</v>
       </c>
       <c r="Q4" t="n">
-        <v>69488</v>
+        <v>159190</v>
       </c>
       <c r="R4" t="n">
-        <v>11199</v>
+        <v>42148</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>640</v>
+        <v>1781</v>
       </c>
       <c r="U4" t="n">
-        <v>685</v>
+        <v>2442</v>
       </c>
       <c r="V4" t="n">
-        <v>1986</v>
+        <v>5163</v>
       </c>
       <c r="W4" t="n">
-        <v>12599</v>
+        <v>29681</v>
       </c>
       <c r="X4" t="n">
-        <v>2761</v>
+        <v>3421</v>
       </c>
       <c r="Y4" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="Z4" t="n">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="AA4" t="n">
-        <v>10087</v>
+        <v>22832</v>
       </c>
       <c r="AB4" t="n">
-        <v>8253</v>
+        <v>20923</v>
       </c>
       <c r="AC4" t="n">
-        <v>324</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1886</v>
+        <v>796</v>
       </c>
       <c r="C5" t="n">
-        <v>1615</v>
+        <v>4901</v>
       </c>
       <c r="D5" t="n">
-        <v>188505</v>
+        <v>443631</v>
       </c>
       <c r="E5" t="n">
-        <v>597</v>
+        <v>1555</v>
       </c>
       <c r="F5" t="n">
-        <v>3219</v>
+        <v>5070</v>
       </c>
       <c r="G5" t="n">
-        <v>8472</v>
+        <v>18418</v>
       </c>
       <c r="H5" t="n">
-        <v>6046</v>
+        <v>16330</v>
       </c>
       <c r="I5" t="n">
-        <v>2523</v>
+        <v>8195</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>190000</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>444427</v>
+      </c>
+      <c r="L5" t="n">
+        <v>796</v>
+      </c>
       <c r="M5" t="n">
-        <v>678</v>
+        <v>2561</v>
       </c>
       <c r="N5" t="n">
-        <v>22508</v>
+        <v>45171</v>
       </c>
       <c r="O5" t="n">
-        <v>8665</v>
+        <v>17481</v>
       </c>
       <c r="P5" t="n">
-        <v>3703</v>
+        <v>7849</v>
       </c>
       <c r="Q5" t="n">
-        <v>77185</v>
+        <v>176189</v>
       </c>
       <c r="R5" t="n">
-        <v>11771</v>
+        <v>46885</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>747</v>
+        <v>1923</v>
       </c>
       <c r="U5" t="n">
-        <v>800</v>
+        <v>2948</v>
       </c>
       <c r="V5" t="n">
-        <v>2097</v>
+        <v>5256</v>
       </c>
       <c r="W5" t="n">
-        <v>14397</v>
+        <v>30144</v>
       </c>
       <c r="X5" t="n">
-        <v>2631</v>
+        <v>3441</v>
       </c>
       <c r="Y5" t="n">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="Z5" t="n">
-        <v>179</v>
+        <v>463</v>
       </c>
       <c r="AA5" t="n">
-        <v>10655</v>
+        <v>25782</v>
       </c>
       <c r="AB5" t="n">
-        <v>8600</v>
+        <v>21482</v>
       </c>
       <c r="AC5" t="n">
-        <v>496</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1722</v>
+        <v>450</v>
       </c>
       <c r="C6" t="n">
-        <v>1755</v>
+        <v>5297</v>
       </c>
       <c r="D6" t="n">
-        <v>206572</v>
+        <v>447981</v>
       </c>
       <c r="E6" t="n">
-        <v>607</v>
+        <v>1408</v>
       </c>
       <c r="F6" t="n">
-        <v>2697</v>
+        <v>5082</v>
       </c>
       <c r="G6" t="n">
-        <v>8382</v>
+        <v>18951</v>
       </c>
       <c r="H6" t="n">
-        <v>7204</v>
+        <v>16995</v>
       </c>
       <c r="I6" t="n">
-        <v>3312</v>
+        <v>8472</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>208000</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>448431</v>
+      </c>
+      <c r="L6" t="n">
+        <v>450</v>
+      </c>
       <c r="M6" t="n">
-        <v>924</v>
+        <v>2583</v>
       </c>
       <c r="N6" t="n">
-        <v>26924</v>
+        <v>47024</v>
       </c>
       <c r="O6" t="n">
-        <v>9412</v>
+        <v>18005</v>
       </c>
       <c r="P6" t="n">
-        <v>4187</v>
+        <v>7964</v>
       </c>
       <c r="Q6" t="n">
-        <v>83751</v>
+        <v>173825</v>
       </c>
       <c r="R6" t="n">
-        <v>12633</v>
+        <v>46897</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>1016</v>
+        <v>2067</v>
       </c>
       <c r="U6" t="n">
-        <v>981</v>
+        <v>2690</v>
       </c>
       <c r="V6" t="n">
-        <v>2366</v>
+        <v>5610</v>
       </c>
       <c r="W6" t="n">
-        <v>16442</v>
+        <v>31627</v>
       </c>
       <c r="X6" t="n">
-        <v>1748</v>
+        <v>3548</v>
       </c>
       <c r="Y6" t="n">
-        <v>957</v>
+        <v>834</v>
       </c>
       <c r="Z6" t="n">
-        <v>108</v>
+        <v>468</v>
       </c>
       <c r="AA6" t="n">
-        <v>10067</v>
+        <v>26797</v>
       </c>
       <c r="AB6" t="n">
-        <v>10435</v>
+        <v>21057</v>
       </c>
       <c r="AC6" t="n">
-        <v>664</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>984</v>
+        <v>529</v>
       </c>
       <c r="C7" t="n">
-        <v>2107</v>
+        <v>5155</v>
       </c>
       <c r="D7" t="n">
-        <v>221489</v>
+        <v>475239</v>
       </c>
       <c r="E7" t="n">
-        <v>701</v>
+        <v>1619</v>
       </c>
       <c r="F7" t="n">
-        <v>3045</v>
+        <v>5316</v>
       </c>
       <c r="G7" t="n">
-        <v>9565</v>
+        <v>21069</v>
       </c>
       <c r="H7" t="n">
-        <v>8525</v>
+        <v>18205</v>
       </c>
       <c r="I7" t="n">
-        <v>3921</v>
+        <v>8890</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>222473</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>475768</v>
+      </c>
+      <c r="L7" t="n">
+        <v>529</v>
+      </c>
       <c r="M7" t="n">
-        <v>999</v>
+        <v>2723</v>
       </c>
       <c r="N7" t="n">
-        <v>29511</v>
+        <v>45187</v>
       </c>
       <c r="O7" t="n">
-        <v>10104</v>
+        <v>19051</v>
       </c>
       <c r="P7" t="n">
-        <v>4669</v>
+        <v>8180</v>
       </c>
       <c r="Q7" t="n">
-        <v>85668</v>
+        <v>192592</v>
       </c>
       <c r="R7" t="n">
-        <v>13428</v>
+        <v>49656</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>1014</v>
+        <v>2182</v>
       </c>
       <c r="U7" t="n">
-        <v>1190</v>
+        <v>3255</v>
       </c>
       <c r="V7" t="n">
-        <v>2842</v>
+        <v>5618</v>
       </c>
       <c r="W7" t="n">
-        <v>18389</v>
+        <v>32606</v>
       </c>
       <c r="X7" t="n">
-        <v>1968</v>
+        <v>3783</v>
       </c>
       <c r="Y7" t="n">
-        <v>982</v>
+        <v>780</v>
       </c>
       <c r="Z7" t="n">
-        <v>126</v>
+        <v>521</v>
       </c>
       <c r="AA7" t="n">
-        <v>10622</v>
+        <v>26652</v>
       </c>
       <c r="AB7" t="n">
-        <v>11659</v>
+        <v>21469</v>
       </c>
       <c r="AC7" t="n">
-        <v>454</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1067</v>
+        <v>445</v>
       </c>
       <c r="C8" t="n">
-        <v>2210</v>
+        <v>5648</v>
       </c>
       <c r="D8" t="n">
-        <v>232904</v>
+        <v>499439</v>
       </c>
       <c r="E8" t="n">
-        <v>637</v>
+        <v>1548</v>
       </c>
       <c r="F8" t="n">
-        <v>3476</v>
+        <v>5141</v>
       </c>
       <c r="G8" t="n">
-        <v>10324</v>
+        <v>21530</v>
       </c>
       <c r="H8" t="n">
-        <v>9013</v>
+        <v>18680</v>
       </c>
       <c r="I8" t="n">
-        <v>4478</v>
+        <v>9796</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>233971</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>499884</v>
+      </c>
+      <c r="L8" t="n">
+        <v>445</v>
+      </c>
       <c r="M8" t="n">
-        <v>1155</v>
+        <v>2756</v>
       </c>
       <c r="N8" t="n">
-        <v>32198</v>
+        <v>48093</v>
       </c>
       <c r="O8" t="n">
-        <v>10989</v>
+        <v>19015</v>
       </c>
       <c r="P8" t="n">
-        <v>4752</v>
+        <v>8847</v>
       </c>
       <c r="Q8" t="n">
-        <v>86352</v>
+        <v>202536</v>
       </c>
       <c r="R8" t="n">
-        <v>14812</v>
+        <v>54502</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>1009</v>
+        <v>2247</v>
       </c>
       <c r="U8" t="n">
-        <v>1220</v>
+        <v>3410</v>
       </c>
       <c r="V8" t="n">
-        <v>2923</v>
+        <v>5729</v>
       </c>
       <c r="W8" t="n">
-        <v>19783</v>
+        <v>34225</v>
       </c>
       <c r="X8" t="n">
-        <v>1718</v>
+        <v>4139</v>
       </c>
       <c r="Y8" t="n">
-        <v>982</v>
+        <v>797</v>
       </c>
       <c r="Z8" t="n">
-        <v>177</v>
+        <v>539</v>
       </c>
       <c r="AA8" t="n">
-        <v>11905</v>
+        <v>27497</v>
       </c>
       <c r="AB8" t="n">
-        <v>12402</v>
+        <v>22021</v>
       </c>
       <c r="AC8" t="n">
-        <v>389</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1374</v>
+        <v>280</v>
       </c>
       <c r="C9" t="n">
-        <v>2470</v>
+        <v>6035</v>
       </c>
       <c r="D9" t="n">
-        <v>246909</v>
+        <v>512207</v>
       </c>
       <c r="E9" t="n">
-        <v>757</v>
+        <v>1410</v>
       </c>
       <c r="F9" t="n">
-        <v>4086</v>
+        <v>5517</v>
       </c>
       <c r="G9" t="n">
-        <v>11543</v>
+        <v>22633</v>
       </c>
       <c r="H9" t="n">
-        <v>9359</v>
+        <v>18720</v>
       </c>
       <c r="I9" t="n">
-        <v>4813</v>
+        <v>9984</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>248283</v>
+        <v>512487</v>
       </c>
       <c r="L9" t="n">
-        <v>1374</v>
+        <v>280</v>
       </c>
       <c r="M9" t="n">
-        <v>1227</v>
+        <v>2968</v>
       </c>
       <c r="N9" t="n">
-        <v>34186</v>
+        <v>48783</v>
       </c>
       <c r="O9" t="n">
-        <v>11968</v>
+        <v>18256</v>
       </c>
       <c r="P9" t="n">
-        <v>4813</v>
+        <v>9482</v>
       </c>
       <c r="Q9" t="n">
-        <v>90419</v>
+        <v>210137</v>
       </c>
       <c r="R9" t="n">
-        <v>15393</v>
+        <v>56790</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>976</v>
+        <v>2525</v>
       </c>
       <c r="U9" t="n">
-        <v>1332</v>
+        <v>3486</v>
       </c>
       <c r="V9" t="n">
-        <v>3423</v>
+        <v>5445</v>
       </c>
       <c r="W9" t="n">
-        <v>21420</v>
+        <v>34840</v>
       </c>
       <c r="X9" t="n">
-        <v>1702</v>
+        <v>3929</v>
       </c>
       <c r="Y9" t="n">
-        <v>942</v>
+        <v>793</v>
       </c>
       <c r="Z9" t="n">
-        <v>185</v>
+        <v>613</v>
       </c>
       <c r="AA9" t="n">
-        <v>11982</v>
+        <v>27294</v>
       </c>
       <c r="AB9" t="n">
-        <v>13425</v>
+        <v>21790</v>
       </c>
       <c r="AC9" t="n">
-        <v>488</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1148</v>
+        <v>337</v>
       </c>
       <c r="C10" t="n">
-        <v>2915</v>
+        <v>5741</v>
       </c>
       <c r="D10" t="n">
-        <v>274520</v>
+        <v>518913</v>
       </c>
       <c r="E10" t="n">
-        <v>667</v>
+        <v>1388</v>
       </c>
       <c r="F10" t="n">
-        <v>5316</v>
+        <v>5355</v>
       </c>
       <c r="G10" t="n">
-        <v>12961</v>
+        <v>23573</v>
       </c>
       <c r="H10" t="n">
-        <v>10063</v>
+        <v>19444</v>
       </c>
       <c r="I10" t="n">
-        <v>5520</v>
+        <v>10083</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>274123</v>
+        <v>519250</v>
       </c>
       <c r="L10" t="n">
-        <v>1148</v>
+        <v>337</v>
       </c>
       <c r="M10" t="n">
-        <v>1429</v>
+        <v>3222</v>
       </c>
       <c r="N10" t="n">
-        <v>39285</v>
+        <v>49336</v>
       </c>
       <c r="O10" t="n">
-        <v>13306</v>
+        <v>18972</v>
       </c>
       <c r="P10" t="n">
-        <v>5556</v>
+        <v>9789</v>
       </c>
       <c r="Q10" t="n">
-        <v>95954</v>
+        <v>209534</v>
       </c>
       <c r="R10" t="n">
-        <v>19585</v>
+        <v>58909</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>1323</v>
+        <v>2561</v>
       </c>
       <c r="U10" t="n">
-        <v>1507</v>
+        <v>3907</v>
       </c>
       <c r="V10" t="n">
-        <v>3645</v>
+        <v>5770</v>
       </c>
       <c r="W10" t="n">
-        <v>23496</v>
+        <v>35228</v>
       </c>
       <c r="X10" t="n">
-        <v>1667</v>
+        <v>3746</v>
       </c>
       <c r="Y10" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="Z10" t="n">
-        <v>241</v>
+        <v>706</v>
       </c>
       <c r="AA10" t="n">
-        <v>13331</v>
+        <v>28488</v>
       </c>
       <c r="AB10" t="n">
-        <v>15528</v>
+        <v>21367</v>
       </c>
       <c r="AC10" t="n">
-        <v>402</v>
+        <v>974</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>827</v>
+        <v>446</v>
       </c>
       <c r="C11" t="n">
-        <v>3313</v>
+        <v>6299</v>
       </c>
       <c r="D11" t="n">
-        <v>300892</v>
+        <v>505533</v>
       </c>
       <c r="E11" t="n">
-        <v>917</v>
+        <v>1218</v>
       </c>
       <c r="F11" t="n">
-        <v>6978</v>
+        <v>5025</v>
       </c>
       <c r="G11" t="n">
-        <v>14584</v>
+        <v>22788</v>
       </c>
       <c r="H11" t="n">
-        <v>11401</v>
+        <v>18913</v>
       </c>
       <c r="I11" t="n">
-        <v>6429</v>
+        <v>9506</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>301719</v>
+        <v>505979</v>
       </c>
       <c r="L11" t="n">
-        <v>827</v>
+        <v>446</v>
       </c>
       <c r="M11" t="n">
-        <v>1659</v>
+        <v>3389</v>
       </c>
       <c r="N11" t="n">
-        <v>40938</v>
+        <v>52615</v>
       </c>
       <c r="O11" t="n">
-        <v>13730</v>
+        <v>17939</v>
       </c>
       <c r="P11" t="n">
-        <v>5505</v>
+        <v>10682</v>
       </c>
       <c r="Q11" t="n">
-        <v>102597</v>
+        <v>203978</v>
       </c>
       <c r="R11" t="n">
-        <v>24993</v>
+        <v>53191</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>1447</v>
+        <v>2657</v>
       </c>
       <c r="U11" t="n">
-        <v>1618</v>
+        <v>3692</v>
       </c>
       <c r="V11" t="n">
-        <v>4112</v>
+        <v>5378</v>
       </c>
       <c r="W11" t="n">
-        <v>25273</v>
+        <v>34239</v>
       </c>
       <c r="X11" t="n">
-        <v>1902</v>
+        <v>3904</v>
       </c>
       <c r="Y11" t="n">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="Z11" t="n">
-        <v>312</v>
+        <v>740</v>
       </c>
       <c r="AA11" t="n">
-        <v>15067</v>
+        <v>26539</v>
       </c>
       <c r="AB11" t="n">
-        <v>16721</v>
+        <v>21222</v>
       </c>
       <c r="AC11" t="n">
-        <v>495</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>765</v>
+        <v>337</v>
       </c>
       <c r="C12" t="n">
-        <v>3862</v>
+        <v>6054</v>
       </c>
       <c r="D12" t="n">
-        <v>327622</v>
+        <v>488714</v>
       </c>
       <c r="E12" t="n">
-        <v>946</v>
+        <v>1184</v>
       </c>
       <c r="F12" t="n">
-        <v>6621</v>
+        <v>4916</v>
       </c>
       <c r="G12" t="n">
-        <v>15792</v>
+        <v>22249</v>
       </c>
       <c r="H12" t="n">
-        <v>12411</v>
+        <v>17574</v>
       </c>
       <c r="I12" t="n">
-        <v>7418</v>
+        <v>8593</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>328387</v>
+        <v>489051</v>
       </c>
       <c r="L12" t="n">
-        <v>765</v>
+        <v>337</v>
       </c>
       <c r="M12" t="n">
-        <v>1790</v>
+        <v>3136</v>
       </c>
       <c r="N12" t="n">
-        <v>41904</v>
+        <v>52908</v>
       </c>
       <c r="O12" t="n">
-        <v>13903</v>
+        <v>16517</v>
       </c>
       <c r="P12" t="n">
-        <v>6294</v>
+        <v>10115</v>
       </c>
       <c r="Q12" t="n">
-        <v>111380</v>
+        <v>202426</v>
       </c>
       <c r="R12" t="n">
-        <v>29958</v>
+        <v>50534</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>1589</v>
+        <v>2607</v>
       </c>
       <c r="U12" t="n">
-        <v>1973</v>
+        <v>3752</v>
       </c>
       <c r="V12" t="n">
-        <v>4841</v>
+        <v>5151</v>
       </c>
       <c r="W12" t="n">
-        <v>27486</v>
+        <v>33087</v>
       </c>
       <c r="X12" t="n">
-        <v>2108</v>
+        <v>4467</v>
       </c>
       <c r="Y12" t="n">
-        <v>1193</v>
+        <v>929</v>
       </c>
       <c r="Z12" t="n">
-        <v>279</v>
+        <v>862</v>
       </c>
       <c r="AA12" t="n">
-        <v>16787</v>
+        <v>22909</v>
       </c>
       <c r="AB12" t="n">
-        <v>18610</v>
+        <v>18004</v>
       </c>
       <c r="AC12" t="n">
-        <v>477</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>883</v>
+        <v>347</v>
       </c>
       <c r="C13" t="n">
-        <v>4189</v>
+        <v>7034</v>
       </c>
       <c r="D13" t="n">
-        <v>368640</v>
+        <v>528850</v>
       </c>
       <c r="E13" t="n">
-        <v>1178</v>
+        <v>1313</v>
       </c>
       <c r="F13" t="n">
-        <v>6305</v>
+        <v>5279</v>
       </c>
       <c r="G13" t="n">
-        <v>15711</v>
+        <v>23008</v>
       </c>
       <c r="H13" t="n">
-        <v>14511</v>
+        <v>19569</v>
       </c>
       <c r="I13" t="n">
-        <v>8600</v>
+        <v>9363</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>369523</v>
+        <v>529197</v>
       </c>
       <c r="L13" t="n">
-        <v>883</v>
+        <v>347</v>
       </c>
       <c r="M13" t="n">
-        <v>2014</v>
+        <v>3935</v>
       </c>
       <c r="N13" t="n">
-        <v>44539</v>
+        <v>56028</v>
       </c>
       <c r="O13" t="n">
-        <v>15669</v>
+        <v>18530</v>
       </c>
       <c r="P13" t="n">
-        <v>6997</v>
+        <v>11551</v>
       </c>
       <c r="Q13" t="n">
-        <v>133054</v>
+        <v>219040</v>
       </c>
       <c r="R13" t="n">
-        <v>32317</v>
+        <v>54780</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>1706</v>
+        <v>3093</v>
       </c>
       <c r="U13" t="n">
-        <v>2259</v>
+        <v>4351</v>
       </c>
       <c r="V13" t="n">
-        <v>5344</v>
+        <v>5669</v>
       </c>
       <c r="W13" t="n">
-        <v>30253</v>
+        <v>35554</v>
       </c>
       <c r="X13" t="n">
-        <v>2850</v>
+        <v>4215</v>
       </c>
       <c r="Y13" t="n">
-        <v>827</v>
+        <v>1034</v>
       </c>
       <c r="Z13" t="n">
-        <v>338</v>
+        <v>1039</v>
       </c>
       <c r="AA13" t="n">
-        <v>19825</v>
+        <v>24504</v>
       </c>
       <c r="AB13" t="n">
-        <v>19550</v>
+        <v>18949</v>
       </c>
       <c r="AC13" t="n">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>692</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4224</v>
-      </c>
-      <c r="D14" t="n">
-        <v>413313</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1279</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5883</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16855</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16916</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8338</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>414005</v>
-      </c>
-      <c r="L14" t="n">
-        <v>692</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2438</v>
-      </c>
-      <c r="N14" t="n">
-        <v>43964</v>
-      </c>
-      <c r="O14" t="n">
-        <v>16791</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7143</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>159190</v>
-      </c>
-      <c r="R14" t="n">
-        <v>42148</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>1781</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2442</v>
-      </c>
-      <c r="V14" t="n">
-        <v>5163</v>
-      </c>
-      <c r="W14" t="n">
-        <v>29681</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3421</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>846</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>461</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>22832</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>20923</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>796</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4901</v>
-      </c>
-      <c r="D15" t="n">
-        <v>443631</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1555</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5070</v>
-      </c>
-      <c r="G15" t="n">
-        <v>18418</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16330</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8195</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>444427</v>
-      </c>
-      <c r="L15" t="n">
-        <v>796</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2561</v>
-      </c>
-      <c r="N15" t="n">
-        <v>45171</v>
-      </c>
-      <c r="O15" t="n">
-        <v>17481</v>
-      </c>
-      <c r="P15" t="n">
-        <v>7849</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>176189</v>
-      </c>
-      <c r="R15" t="n">
-        <v>46885</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>1923</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2948</v>
-      </c>
-      <c r="V15" t="n">
-        <v>5256</v>
-      </c>
-      <c r="W15" t="n">
-        <v>30144</v>
-      </c>
-      <c r="X15" t="n">
-        <v>3441</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>915</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>463</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>25782</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21482</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>450</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5297</v>
-      </c>
-      <c r="D16" t="n">
-        <v>447981</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1408</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5082</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18951</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16995</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8472</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>448431</v>
-      </c>
-      <c r="L16" t="n">
-        <v>450</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2583</v>
-      </c>
-      <c r="N16" t="n">
-        <v>47024</v>
-      </c>
-      <c r="O16" t="n">
-        <v>18005</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7964</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>173825</v>
-      </c>
-      <c r="R16" t="n">
-        <v>46897</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>2067</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2690</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5610</v>
-      </c>
-      <c r="W16" t="n">
-        <v>31627</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3548</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>834</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>468</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>26797</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21057</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>529</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5155</v>
-      </c>
-      <c r="D17" t="n">
-        <v>475239</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1619</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5316</v>
-      </c>
-      <c r="G17" t="n">
-        <v>21069</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18205</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8890</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>475768</v>
-      </c>
-      <c r="L17" t="n">
-        <v>529</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2723</v>
-      </c>
-      <c r="N17" t="n">
-        <v>45187</v>
-      </c>
-      <c r="O17" t="n">
-        <v>19051</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8180</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>192592</v>
-      </c>
-      <c r="R17" t="n">
-        <v>49656</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>2182</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3255</v>
-      </c>
-      <c r="V17" t="n">
-        <v>5618</v>
-      </c>
-      <c r="W17" t="n">
-        <v>32606</v>
-      </c>
-      <c r="X17" t="n">
-        <v>3783</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>780</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>521</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26652</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21469</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>445</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5648</v>
-      </c>
-      <c r="D18" t="n">
-        <v>499439</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1548</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5141</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21530</v>
-      </c>
-      <c r="H18" t="n">
-        <v>18680</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9796</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>499884</v>
-      </c>
-      <c r="L18" t="n">
-        <v>445</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2756</v>
-      </c>
-      <c r="N18" t="n">
-        <v>48093</v>
-      </c>
-      <c r="O18" t="n">
-        <v>19015</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8847</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>202536</v>
-      </c>
-      <c r="R18" t="n">
-        <v>54502</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>2247</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3410</v>
-      </c>
-      <c r="V18" t="n">
-        <v>5729</v>
-      </c>
-      <c r="W18" t="n">
-        <v>34225</v>
-      </c>
-      <c r="X18" t="n">
-        <v>4139</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>797</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>539</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>27497</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>22021</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>280</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6035</v>
-      </c>
-      <c r="D19" t="n">
-        <v>512207</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1410</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5517</v>
-      </c>
-      <c r="G19" t="n">
-        <v>22633</v>
-      </c>
-      <c r="H19" t="n">
-        <v>18720</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9984</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>512487</v>
-      </c>
-      <c r="L19" t="n">
-        <v>280</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2968</v>
-      </c>
-      <c r="N19" t="n">
-        <v>48783</v>
-      </c>
-      <c r="O19" t="n">
-        <v>18256</v>
-      </c>
-      <c r="P19" t="n">
-        <v>9482</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>210137</v>
-      </c>
-      <c r="R19" t="n">
-        <v>56790</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>2525</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3486</v>
-      </c>
-      <c r="V19" t="n">
-        <v>5445</v>
-      </c>
-      <c r="W19" t="n">
-        <v>34840</v>
-      </c>
-      <c r="X19" t="n">
-        <v>3929</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>793</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>613</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>27294</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>21790</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>337</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5741</v>
-      </c>
-      <c r="D20" t="n">
-        <v>518913</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1388</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5355</v>
-      </c>
-      <c r="G20" t="n">
-        <v>23573</v>
-      </c>
-      <c r="H20" t="n">
-        <v>19444</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10083</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>519250</v>
-      </c>
-      <c r="L20" t="n">
-        <v>337</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3222</v>
-      </c>
-      <c r="N20" t="n">
-        <v>49336</v>
-      </c>
-      <c r="O20" t="n">
-        <v>18972</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9789</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>209534</v>
-      </c>
-      <c r="R20" t="n">
-        <v>58909</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>2561</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3907</v>
-      </c>
-      <c r="V20" t="n">
-        <v>5770</v>
-      </c>
-      <c r="W20" t="n">
-        <v>35228</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3746</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>820</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>706</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>28488</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21367</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>446</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6299</v>
-      </c>
-      <c r="D21" t="n">
-        <v>505533</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1218</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5025</v>
-      </c>
-      <c r="G21" t="n">
-        <v>22788</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18913</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9506</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>505979</v>
-      </c>
-      <c r="L21" t="n">
-        <v>446</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3389</v>
-      </c>
-      <c r="N21" t="n">
-        <v>52615</v>
-      </c>
-      <c r="O21" t="n">
-        <v>17939</v>
-      </c>
-      <c r="P21" t="n">
-        <v>10682</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>203978</v>
-      </c>
-      <c r="R21" t="n">
-        <v>53191</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>2657</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3692</v>
-      </c>
-      <c r="V21" t="n">
-        <v>5378</v>
-      </c>
-      <c r="W21" t="n">
-        <v>34239</v>
-      </c>
-      <c r="X21" t="n">
-        <v>3904</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>861</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>740</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>26539</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21222</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>337</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6054</v>
-      </c>
-      <c r="D22" t="n">
-        <v>488714</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4916</v>
-      </c>
-      <c r="G22" t="n">
-        <v>22249</v>
-      </c>
-      <c r="H22" t="n">
-        <v>17574</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8593</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>489051</v>
-      </c>
-      <c r="L22" t="n">
-        <v>337</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3136</v>
-      </c>
-      <c r="N22" t="n">
-        <v>52908</v>
-      </c>
-      <c r="O22" t="n">
-        <v>16517</v>
-      </c>
-      <c r="P22" t="n">
-        <v>10115</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>202426</v>
-      </c>
-      <c r="R22" t="n">
-        <v>50534</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>2607</v>
-      </c>
-      <c r="U22" t="n">
-        <v>3752</v>
-      </c>
-      <c r="V22" t="n">
-        <v>5151</v>
-      </c>
-      <c r="W22" t="n">
-        <v>33087</v>
-      </c>
-      <c r="X22" t="n">
-        <v>4467</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>929</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>862</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>22909</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>18004</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>740</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
